--- a/paramData Excels/P0041.xlsx
+++ b/paramData Excels/P0041.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8DD4CB9-7C6F-4E8B-83F1-942C8EFFA325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,17 +14,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$47</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
   <si>
     <t>COLUMN_KEY</t>
   </si>
@@ -321,13 +322,25 @@
   </si>
   <si>
     <t>uint64</t>
+  </si>
+  <si>
+    <t>Age till n (for consideration of Medical Report)</t>
+  </si>
+  <si>
+    <t>Various Medical Reports for different Sum Assured Slabs</t>
+  </si>
+  <si>
+    <t>Sum Assured Slab for Medical Report</t>
+  </si>
+  <si>
+    <t>Medical Report Codes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +380,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -413,7 +433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -421,11 +441,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -438,6 +473,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,9 +494,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -496,9 +534,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,7 +571,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -568,7 +606,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -741,33 +779,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:AA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="6" customWidth="1"/>
     <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="48.77734375" customWidth="1"/>
+    <col min="27" max="27" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,7 +869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -866,8 +906,14 @@
       <c r="Q2" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="6">
         <v>2</v>
@@ -893,8 +939,11 @@
       <c r="K3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z3" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="6">
         <v>3</v>
@@ -926,228 +975,231 @@
       <c r="S4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z4" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="E31" s="6"/>
       <c r="J31" s="8"/>
       <c r="V31" s="8"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V47"/>
+  <autoFilter ref="A1:V47" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1155,24 +1207,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1197,242 +1249,242 @@
         <v>A</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>20</v>
       </c>
